--- a/config/project/Integrate_120KW_huawei/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_huawei/IntegrateConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_huawei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1CDF8564-86C9-4F33-9DD6-554F24E7CB5C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E405A65-741F-4004-B142-4A77637908A4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="581">
   <si>
     <t>组序号</t>
   </si>
@@ -2955,6 +2955,18 @@
   </si>
   <si>
     <t>模块8二维码</t>
+  </si>
+  <si>
+    <t>空调二维码录入</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeinput</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3913,7 +3925,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4358,76 +4370,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4787,10 +4802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5128,11 +5143,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
-      <c r="B15" s="182" t="s">
+      <c r="A15" s="167"/>
+      <c r="B15" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="182" t="s">
+      <c r="C15" s="167" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -5149,9 +5164,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -5166,9 +5181,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="174"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="174"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -5183,9 +5198,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="174"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="174"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -5200,9 +5215,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="174"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="174"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -5263,11 +5278,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="175"/>
-      <c r="B22" s="175" t="s">
+      <c r="A22" s="173"/>
+      <c r="B22" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="173" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -5284,9 +5299,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="165"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -5301,9 +5316,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="165"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="165"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -5318,9 +5333,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="165"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
+      <c r="A25" s="169"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="169"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -5335,9 +5350,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="166"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
+      <c r="A26" s="174"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="174"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -5394,11 +5409,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="186"/>
-      <c r="B29" s="183" t="s">
+      <c r="A29" s="175"/>
+      <c r="B29" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="183" t="s">
+      <c r="C29" s="178" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -5415,9 +5430,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="184"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
+      <c r="A30" s="176"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -5432,9 +5447,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
+      <c r="A31" s="176"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -5449,9 +5464,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="184"/>
+      <c r="A32" s="176"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5466,9 +5481,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="185"/>
+      <c r="A33" s="177"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5483,11 +5498,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="174"/>
-      <c r="B34" s="174" t="s">
+      <c r="A34" s="165"/>
+      <c r="B34" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="174" t="s">
+      <c r="C34" s="165" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5504,9 +5519,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="174"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5521,11 +5536,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="174"/>
-      <c r="B36" s="174" t="s">
+      <c r="A36" s="165"/>
+      <c r="B36" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="182" t="s">
+      <c r="C36" s="167" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="20">
@@ -5542,9 +5557,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="174"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
+      <c r="A37" s="165"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5559,11 +5574,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="174"/>
-      <c r="B38" s="169" t="s">
+      <c r="A38" s="165"/>
+      <c r="B38" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="169" t="s">
+      <c r="C38" s="166" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5580,9 +5595,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="174"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5597,11 +5612,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="174"/>
-      <c r="B40" s="174" t="s">
+      <c r="A40" s="165"/>
+      <c r="B40" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="169" t="s">
+      <c r="C40" s="166" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5618,9 +5633,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="174"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
+      <c r="A41" s="165"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5635,9 +5650,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="174"/>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
+      <c r="A42" s="165"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5652,9 +5667,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="174"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
+      <c r="A43" s="165"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5669,9 +5684,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="174"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="174"/>
+      <c r="A44" s="165"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5686,11 +5701,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="174">
+      <c r="A45" s="165">
         <v>13</v>
       </c>
-      <c r="B45" s="174"/>
-      <c r="C45" s="174" t="s">
+      <c r="B45" s="165"/>
+      <c r="C45" s="165" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5770,11 +5785,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="187"/>
-      <c r="B49" s="180" t="s">
+      <c r="A49" s="172"/>
+      <c r="B49" s="170" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="181" t="s">
+      <c r="C49" s="171" t="s">
         <v>276</v>
       </c>
       <c r="D49" s="20">
@@ -5791,9 +5806,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="174"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
+      <c r="A50" s="165"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5808,9 +5823,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="174"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
+      <c r="A51" s="165"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5909,11 +5924,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="175"/>
-      <c r="B56" s="164" t="s">
+      <c r="A56" s="173"/>
+      <c r="B56" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="175" t="s">
+      <c r="C56" s="173" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5930,9 +5945,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="165"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
+      <c r="A57" s="169"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5947,9 +5962,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="165"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
+      <c r="A58" s="169"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5964,9 +5979,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="165"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5981,9 +5996,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="165"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
+      <c r="A60" s="169"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5998,9 +6013,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="165"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -6015,9 +6030,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="165"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -6074,11 +6089,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="187"/>
-      <c r="B65" s="180" t="s">
+      <c r="A65" s="172"/>
+      <c r="B65" s="170" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="181" t="s">
+      <c r="C65" s="171" t="s">
         <v>276</v>
       </c>
       <c r="D65" s="20">
@@ -6095,9 +6110,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="174"/>
-      <c r="B66" s="174"/>
-      <c r="C66" s="174"/>
+      <c r="A66" s="165"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -6112,9 +6127,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="174"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
+      <c r="A67" s="165"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -6213,11 +6228,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="175"/>
-      <c r="B72" s="164" t="s">
+      <c r="A72" s="173"/>
+      <c r="B72" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="175" t="s">
+      <c r="C72" s="173" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -6234,9 +6249,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="165"/>
-      <c r="B73" s="165"/>
-      <c r="C73" s="165"/>
+      <c r="A73" s="169"/>
+      <c r="B73" s="169"/>
+      <c r="C73" s="169"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -6251,9 +6266,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="165"/>
-      <c r="B74" s="165"/>
-      <c r="C74" s="165"/>
+      <c r="A74" s="169"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="169"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -6268,9 +6283,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="165"/>
-      <c r="B75" s="165"/>
-      <c r="C75" s="165"/>
+      <c r="A75" s="169"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="169"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -6285,9 +6300,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="165"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="165"/>
+      <c r="A76" s="169"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -6302,9 +6317,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="165"/>
-      <c r="B77" s="165"/>
-      <c r="C77" s="165"/>
+      <c r="A77" s="169"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -6319,9 +6334,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="165"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="165"/>
+      <c r="A78" s="169"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -6378,11 +6393,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="182"/>
-      <c r="B81" s="182" t="s">
+      <c r="A81" s="167"/>
+      <c r="B81" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="169" t="s">
+      <c r="C81" s="166" t="s">
         <v>572</v>
       </c>
       <c r="D81" s="20">
@@ -6399,9 +6414,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="174"/>
-      <c r="B82" s="174"/>
-      <c r="C82" s="174"/>
+      <c r="A82" s="165"/>
+      <c r="B82" s="165"/>
+      <c r="C82" s="165"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -6416,9 +6431,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="174"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="174"/>
+      <c r="A83" s="165"/>
+      <c r="B83" s="165"/>
+      <c r="C83" s="165"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -6433,9 +6448,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="174"/>
-      <c r="B84" s="174"/>
-      <c r="C84" s="174"/>
+      <c r="A84" s="165"/>
+      <c r="B84" s="165"/>
+      <c r="C84" s="165"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6744,11 +6759,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="176"/>
-      <c r="B99" s="176" t="s">
+      <c r="A99" s="180"/>
+      <c r="B99" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="C99" s="176" t="s">
+      <c r="C99" s="180" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="80">
@@ -6765,9 +6780,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="176"/>
-      <c r="B100" s="176"/>
-      <c r="C100" s="176"/>
+      <c r="A100" s="180"/>
+      <c r="B100" s="180"/>
+      <c r="C100" s="180"/>
       <c r="D100" s="80">
         <v>99</v>
       </c>
@@ -6782,9 +6797,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="176"/>
-      <c r="B101" s="176"/>
-      <c r="C101" s="176"/>
+      <c r="A101" s="180"/>
+      <c r="B101" s="180"/>
+      <c r="C101" s="180"/>
       <c r="D101" s="80">
         <v>100</v>
       </c>
@@ -6820,11 +6835,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="176"/>
-      <c r="B103" s="176" t="s">
+      <c r="A103" s="180"/>
+      <c r="B103" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="C103" s="176" t="s">
+      <c r="C103" s="180" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="75">
@@ -6841,9 +6856,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="177"/>
-      <c r="B104" s="177"/>
-      <c r="C104" s="177"/>
+      <c r="A104" s="187"/>
+      <c r="B104" s="187"/>
+      <c r="C104" s="187"/>
       <c r="D104" s="75">
         <v>103</v>
       </c>
@@ -6858,9 +6873,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="177"/>
-      <c r="B105" s="177"/>
-      <c r="C105" s="177"/>
+      <c r="A105" s="187"/>
+      <c r="B105" s="187"/>
+      <c r="C105" s="187"/>
       <c r="D105" s="75">
         <v>104</v>
       </c>
@@ -7863,10 +7878,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="179"/>
-      <c r="B153" s="178" t="s">
+      <c r="B153" s="188" t="s">
         <v>448</v>
       </c>
-      <c r="C153" s="174" t="s">
+      <c r="C153" s="165" t="s">
         <v>447</v>
       </c>
       <c r="D153" s="122">
@@ -7885,7 +7900,7 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="179"/>
       <c r="B154" s="179"/>
-      <c r="C154" s="174"/>
+      <c r="C154" s="165"/>
       <c r="D154" s="122">
         <v>153</v>
       </c>
@@ -7902,7 +7917,7 @@
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="179"/>
       <c r="B155" s="179"/>
-      <c r="C155" s="174"/>
+      <c r="C155" s="165"/>
       <c r="D155" s="122">
         <v>154</v>
       </c>
@@ -8169,11 +8184,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="164"/>
-      <c r="B168" s="164" t="s">
+      <c r="A168" s="168"/>
+      <c r="B168" s="168" t="s">
         <v>483</v>
       </c>
-      <c r="C168" s="164" t="s">
+      <c r="C168" s="168" t="s">
         <v>447</v>
       </c>
       <c r="D168" s="132">
@@ -8190,9 +8205,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="165"/>
-      <c r="B169" s="167"/>
-      <c r="C169" s="167"/>
+      <c r="A169" s="169"/>
+      <c r="B169" s="184"/>
+      <c r="C169" s="184"/>
       <c r="D169" s="132">
         <v>168</v>
       </c>
@@ -8207,9 +8222,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="165"/>
-      <c r="B170" s="167"/>
-      <c r="C170" s="167"/>
+      <c r="A170" s="169"/>
+      <c r="B170" s="184"/>
+      <c r="C170" s="184"/>
       <c r="D170" s="132">
         <v>169</v>
       </c>
@@ -8224,9 +8239,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="165"/>
-      <c r="B171" s="167"/>
-      <c r="C171" s="167"/>
+      <c r="A171" s="169"/>
+      <c r="B171" s="184"/>
+      <c r="C171" s="184"/>
       <c r="D171" s="132">
         <v>170</v>
       </c>
@@ -8241,9 +8256,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="165"/>
-      <c r="B172" s="167"/>
-      <c r="C172" s="167"/>
+      <c r="A172" s="169"/>
+      <c r="B172" s="184"/>
+      <c r="C172" s="184"/>
       <c r="D172" s="132">
         <v>171</v>
       </c>
@@ -8258,9 +8273,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="165"/>
-      <c r="B173" s="167"/>
-      <c r="C173" s="167"/>
+      <c r="A173" s="169"/>
+      <c r="B173" s="184"/>
+      <c r="C173" s="184"/>
       <c r="D173" s="132">
         <v>172</v>
       </c>
@@ -8275,9 +8290,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="166"/>
-      <c r="B174" s="168"/>
-      <c r="C174" s="168"/>
+      <c r="A174" s="174"/>
+      <c r="B174" s="185"/>
+      <c r="C174" s="185"/>
       <c r="D174" s="132">
         <v>173</v>
       </c>
@@ -8292,11 +8307,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="164"/>
-      <c r="B175" s="164" t="s">
+      <c r="A175" s="168"/>
+      <c r="B175" s="168" t="s">
         <v>489</v>
       </c>
-      <c r="C175" s="164" t="s">
+      <c r="C175" s="168" t="s">
         <v>447</v>
       </c>
       <c r="D175" s="132">
@@ -8313,9 +8328,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="165"/>
-      <c r="B176" s="167"/>
-      <c r="C176" s="167"/>
+      <c r="A176" s="169"/>
+      <c r="B176" s="184"/>
+      <c r="C176" s="184"/>
       <c r="D176" s="132">
         <v>175</v>
       </c>
@@ -8330,9 +8345,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="165"/>
-      <c r="B177" s="167"/>
-      <c r="C177" s="167"/>
+      <c r="A177" s="169"/>
+      <c r="B177" s="184"/>
+      <c r="C177" s="184"/>
       <c r="D177" s="132">
         <v>176</v>
       </c>
@@ -8347,9 +8362,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="165"/>
-      <c r="B178" s="167"/>
-      <c r="C178" s="167"/>
+      <c r="A178" s="169"/>
+      <c r="B178" s="184"/>
+      <c r="C178" s="184"/>
       <c r="D178" s="132">
         <v>177</v>
       </c>
@@ -8364,9 +8379,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="165"/>
-      <c r="B179" s="167"/>
-      <c r="C179" s="167"/>
+      <c r="A179" s="169"/>
+      <c r="B179" s="184"/>
+      <c r="C179" s="184"/>
       <c r="D179" s="132">
         <v>178</v>
       </c>
@@ -8381,9 +8396,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="165"/>
-      <c r="B180" s="167"/>
-      <c r="C180" s="167"/>
+      <c r="A180" s="169"/>
+      <c r="B180" s="184"/>
+      <c r="C180" s="184"/>
       <c r="D180" s="132">
         <v>179</v>
       </c>
@@ -8398,9 +8413,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="166"/>
-      <c r="B181" s="168"/>
-      <c r="C181" s="168"/>
+      <c r="A181" s="174"/>
+      <c r="B181" s="185"/>
+      <c r="C181" s="185"/>
       <c r="D181" s="132">
         <v>180</v>
       </c>
@@ -8478,11 +8493,11 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="173"/>
-      <c r="B185" s="164" t="s">
+      <c r="A185" s="186"/>
+      <c r="B185" s="168" t="s">
         <v>544</v>
       </c>
-      <c r="C185" s="170" t="s">
+      <c r="C185" s="181" t="s">
         <v>508</v>
       </c>
       <c r="D185" s="132">
@@ -8499,9 +8514,9 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="165"/>
-      <c r="B186" s="167"/>
-      <c r="C186" s="171"/>
+      <c r="A186" s="169"/>
+      <c r="B186" s="184"/>
+      <c r="C186" s="182"/>
       <c r="D186" s="132">
         <v>185</v>
       </c>
@@ -8516,9 +8531,9 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="165"/>
-      <c r="B187" s="167"/>
-      <c r="C187" s="171"/>
+      <c r="A187" s="169"/>
+      <c r="B187" s="184"/>
+      <c r="C187" s="182"/>
       <c r="D187" s="132">
         <v>186</v>
       </c>
@@ -8533,9 +8548,9 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="165"/>
-      <c r="B188" s="167"/>
-      <c r="C188" s="171"/>
+      <c r="A188" s="169"/>
+      <c r="B188" s="184"/>
+      <c r="C188" s="182"/>
       <c r="D188" s="132">
         <v>187</v>
       </c>
@@ -8550,9 +8565,9 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="165"/>
-      <c r="B189" s="167"/>
-      <c r="C189" s="171"/>
+      <c r="A189" s="169"/>
+      <c r="B189" s="184"/>
+      <c r="C189" s="182"/>
       <c r="D189" s="132">
         <v>188</v>
       </c>
@@ -8567,9 +8582,9 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="165"/>
-      <c r="B190" s="167"/>
-      <c r="C190" s="171"/>
+      <c r="A190" s="169"/>
+      <c r="B190" s="184"/>
+      <c r="C190" s="182"/>
       <c r="D190" s="132">
         <v>189</v>
       </c>
@@ -8584,9 +8599,9 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="165"/>
-      <c r="B191" s="167"/>
-      <c r="C191" s="171"/>
+      <c r="A191" s="169"/>
+      <c r="B191" s="184"/>
+      <c r="C191" s="182"/>
       <c r="D191" s="132">
         <v>190</v>
       </c>
@@ -8601,9 +8616,9 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="165"/>
-      <c r="B192" s="167"/>
-      <c r="C192" s="171"/>
+      <c r="A192" s="169"/>
+      <c r="B192" s="184"/>
+      <c r="C192" s="182"/>
       <c r="D192" s="132">
         <v>191</v>
       </c>
@@ -8618,9 +8633,9 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="165"/>
-      <c r="B193" s="167"/>
-      <c r="C193" s="171"/>
+      <c r="A193" s="169"/>
+      <c r="B193" s="184"/>
+      <c r="C193" s="182"/>
       <c r="D193" s="132">
         <v>192</v>
       </c>
@@ -8635,9 +8650,9 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="165"/>
-      <c r="B194" s="167"/>
-      <c r="C194" s="171"/>
+      <c r="A194" s="169"/>
+      <c r="B194" s="184"/>
+      <c r="C194" s="182"/>
       <c r="D194" s="132">
         <v>193</v>
       </c>
@@ -8652,9 +8667,9 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="165"/>
-      <c r="B195" s="167"/>
-      <c r="C195" s="171"/>
+      <c r="A195" s="169"/>
+      <c r="B195" s="184"/>
+      <c r="C195" s="182"/>
       <c r="D195" s="132">
         <v>194</v>
       </c>
@@ -8669,9 +8684,9 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="165"/>
-      <c r="B196" s="167"/>
-      <c r="C196" s="171"/>
+      <c r="A196" s="169"/>
+      <c r="B196" s="184"/>
+      <c r="C196" s="182"/>
       <c r="D196" s="132">
         <v>195</v>
       </c>
@@ -8686,9 +8701,9 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="165"/>
-      <c r="B197" s="167"/>
-      <c r="C197" s="171"/>
+      <c r="A197" s="169"/>
+      <c r="B197" s="184"/>
+      <c r="C197" s="182"/>
       <c r="D197" s="132">
         <v>196</v>
       </c>
@@ -8703,9 +8718,9 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="165"/>
-      <c r="B198" s="167"/>
-      <c r="C198" s="171"/>
+      <c r="A198" s="169"/>
+      <c r="B198" s="184"/>
+      <c r="C198" s="182"/>
       <c r="D198" s="132">
         <v>197</v>
       </c>
@@ -8720,9 +8735,9 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="166"/>
-      <c r="B199" s="168"/>
-      <c r="C199" s="172"/>
+      <c r="A199" s="174"/>
+      <c r="B199" s="185"/>
+      <c r="C199" s="183"/>
       <c r="D199" s="132">
         <v>198</v>
       </c>
@@ -8737,11 +8752,11 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="164"/>
-      <c r="B200" s="164" t="s">
+      <c r="A200" s="168"/>
+      <c r="B200" s="168" t="s">
         <v>555</v>
       </c>
-      <c r="C200" s="164" t="s">
+      <c r="C200" s="168" t="s">
         <v>554</v>
       </c>
       <c r="D200" s="132">
@@ -8758,9 +8773,9 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="167"/>
-      <c r="B201" s="167"/>
-      <c r="C201" s="167"/>
+      <c r="A201" s="184"/>
+      <c r="B201" s="184"/>
+      <c r="C201" s="184"/>
       <c r="D201" s="132">
         <v>200</v>
       </c>
@@ -8775,9 +8790,9 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="167"/>
-      <c r="B202" s="167"/>
-      <c r="C202" s="167"/>
+      <c r="A202" s="184"/>
+      <c r="B202" s="184"/>
+      <c r="C202" s="184"/>
       <c r="D202" s="132">
         <v>201</v>
       </c>
@@ -8792,9 +8807,9 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="167"/>
-      <c r="B203" s="167"/>
-      <c r="C203" s="167"/>
+      <c r="A203" s="184"/>
+      <c r="B203" s="184"/>
+      <c r="C203" s="184"/>
       <c r="D203" s="132">
         <v>202</v>
       </c>
@@ -8809,9 +8824,9 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="167"/>
-      <c r="B204" s="167"/>
-      <c r="C204" s="167"/>
+      <c r="A204" s="184"/>
+      <c r="B204" s="184"/>
+      <c r="C204" s="184"/>
       <c r="D204" s="132">
         <v>203</v>
       </c>
@@ -8826,9 +8841,9 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="167"/>
-      <c r="B205" s="167"/>
-      <c r="C205" s="167"/>
+      <c r="A205" s="184"/>
+      <c r="B205" s="184"/>
+      <c r="C205" s="184"/>
       <c r="D205" s="132">
         <v>204</v>
       </c>
@@ -8843,9 +8858,9 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="167"/>
-      <c r="B206" s="167"/>
-      <c r="C206" s="167"/>
+      <c r="A206" s="184"/>
+      <c r="B206" s="184"/>
+      <c r="C206" s="184"/>
       <c r="D206" s="132">
         <v>205</v>
       </c>
@@ -8860,9 +8875,9 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="168"/>
-      <c r="B207" s="168"/>
-      <c r="C207" s="168"/>
+      <c r="A207" s="185"/>
+      <c r="B207" s="185"/>
+      <c r="C207" s="185"/>
       <c r="D207" s="132">
         <v>206</v>
       </c>
@@ -8877,11 +8892,11 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="164"/>
-      <c r="B208" s="164" t="s">
+      <c r="A208" s="168"/>
+      <c r="B208" s="168" t="s">
         <v>573</v>
       </c>
-      <c r="C208" s="164" t="s">
+      <c r="C208" s="168" t="s">
         <v>447</v>
       </c>
       <c r="D208" s="132">
@@ -8898,9 +8913,9 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="165"/>
-      <c r="B209" s="167"/>
-      <c r="C209" s="167"/>
+      <c r="A209" s="169"/>
+      <c r="B209" s="184"/>
+      <c r="C209" s="184"/>
       <c r="D209" s="132">
         <v>208</v>
       </c>
@@ -8915,9 +8930,9 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="165"/>
-      <c r="B210" s="167"/>
-      <c r="C210" s="167"/>
+      <c r="A210" s="169"/>
+      <c r="B210" s="184"/>
+      <c r="C210" s="184"/>
       <c r="D210" s="132">
         <v>209</v>
       </c>
@@ -8932,9 +8947,9 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="165"/>
-      <c r="B211" s="167"/>
-      <c r="C211" s="167"/>
+      <c r="A211" s="169"/>
+      <c r="B211" s="184"/>
+      <c r="C211" s="184"/>
       <c r="D211" s="132">
         <v>210</v>
       </c>
@@ -8949,9 +8964,9 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="165"/>
-      <c r="B212" s="167"/>
-      <c r="C212" s="167"/>
+      <c r="A212" s="169"/>
+      <c r="B212" s="184"/>
+      <c r="C212" s="184"/>
       <c r="D212" s="132">
         <v>211</v>
       </c>
@@ -8966,9 +8981,9 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="165"/>
-      <c r="B213" s="167"/>
-      <c r="C213" s="167"/>
+      <c r="A213" s="169"/>
+      <c r="B213" s="184"/>
+      <c r="C213" s="184"/>
       <c r="D213" s="132">
         <v>212</v>
       </c>
@@ -8983,9 +8998,9 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="166"/>
-      <c r="B214" s="168"/>
-      <c r="C214" s="168"/>
+      <c r="A214" s="174"/>
+      <c r="B214" s="185"/>
+      <c r="C214" s="185"/>
       <c r="D214" s="132">
         <v>213</v>
       </c>
@@ -8999,8 +9014,73 @@
         <v>493</v>
       </c>
     </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="142"/>
+      <c r="B215" s="164" t="s">
+        <v>578</v>
+      </c>
+      <c r="C215" s="164" t="s">
+        <v>579</v>
+      </c>
+      <c r="D215" s="132">
+        <v>214</v>
+      </c>
+      <c r="E215" s="164" t="s">
+        <v>578</v>
+      </c>
+      <c r="F215" s="164" t="s">
+        <v>580</v>
+      </c>
+      <c r="G215" s="164" t="s">
+        <v>580</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A208:A214"/>
+    <mergeCell ref="B208:B214"/>
+    <mergeCell ref="C208:C214"/>
+    <mergeCell ref="B200:B207"/>
+    <mergeCell ref="C200:C207"/>
+    <mergeCell ref="A200:A207"/>
+    <mergeCell ref="C185:C199"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="A185:A199"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
@@ -9017,50 +9097,6 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C185:C199"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="A185:A199"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A208:A214"/>
-    <mergeCell ref="B208:B214"/>
-    <mergeCell ref="C208:C214"/>
-    <mergeCell ref="B200:B207"/>
-    <mergeCell ref="C200:C207"/>
-    <mergeCell ref="A200:A207"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
